--- a/biology/Botanique/Hugh_Algernon_Weddell/Hugh_Algernon_Weddell.xlsx
+++ b/biology/Botanique/Hugh_Algernon_Weddell/Hugh_Algernon_Weddell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugh (d') Algernon Weddell est un médecin et botaniste. Né le 22 juin 1819 à Painswick, près de Gloucester en Angleterre, il meurt le 22 juillet 1877 à Poitiers après avoir été éduqué et avoir travaillé en France.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Weddell fait ses études à Boulogne-sur-Mer puis au lycée Henri-IV à Paris. Il assiste aux leçons et aux herborisations d'Adrien de Jussieu, qui l'incite à étudier la médecine. Il étudie notamment à l'hôpital Cochin et devient docteur en médecine en 1842.
 Il devait contribuer à la Flore analytique et descriptive des environs de Paris[N 1] de Germain de Saint-Pierre et Ernest Saint-Charles Cosson, mais Jussieu le choisit comme naturaliste de l'expédition menée par Francis de la Porte, comte de Castelnau en Amérique du Sud. Weddell, d'abord aux côtés de Castelnau, puis seul, explore ce continent, durant six ans, et s'intéresse notamment aux quinquinas, à la coca et à l'ipecacuanha. Il rapporte une très belle collection de plantes ainsi que des oiseaux, des mammifères et des minéraux.
@@ -546,7 +560,9 @@
           <t>Publications (liste partielle)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voyages dans le nord de la Bolivie et dans les parties voisines du Pérou ou, Visite au district aurifère de Tipuani, 1853
 Chloris Andina, coll. « Expédition dans les parties centrales de l'Amérique du Sud, de Rio de Janeiro à Lima, et de Lima au Pará [sic] exécutée par ordre du gouvernement français pendant les années 1843 à 1847 sous la direction de Francis de Castelnau » : t. 1, 1855, 231 p. ; t. 2, 1857, 316 p. — Constitue la sixième partie (Botanique) de la collection[N 3].
@@ -580,7 +596,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Espèces nommées en l'honneur de Weddell
@@ -588,40 +606,40 @@
 Espèces animales
 (Psittacidae) Aratinga weddellii
 Espèces végétales
-(Arecaceae) Calappa weddellii (Drude ex Mart.) Kuntze[1]
-(Aristolochiaceae) Aristolochia weddellii Duch.[2]
-(Asclepiadaceae) Asclepias weddellii E.Fourn.[3]
-(Asteraceae) Baccharis weddellii Sch.Bip. ex Baker[4]
-(Asteraceae) Doniophyton weddellii Katinas &amp; Stuessy[5]
-(Asteraceae) Neocuatrecasia weddellii (B.L.Rob.) R.M.King &amp; H.Rob.[6]
-(Asteraceae) Xenophyllum weddellii (Phil.) V.A.Funk[7]
-(Berberidaceae) Berberis weddellii Lechl.[8]
-(Boraginaceae) Cordia weddellii I.M.Johnst.[9]
-(Brassicaceae) Exhalimolobos weddellii (E.Fourn.) Al-Shehbaz &amp; C.D.Bailey[10]
-(Campanulaceae) Centropogon weddellii E.Wimm.[11]
-(Caryophyllaceae) Stellaria weddellii Pedersen[12]
-(Cucurbitaceae) Cayaponia weddellii Cogn.[13]
-(Ebenaceae) Diospyros weddellii Hiern[14]
-(Eriocaulaceae) Syngonanthus weddellii Moldenke[15]
-(Geraniaceae) Geranium weddellii Briq.[16]
-(Lauraceae) Nectandra weddellii Meisn.[17]
-(Lycopodiaceae) Huperzia weddellii (Herter) Holub[18]
-(Melastomataceae) Acinodendron weddellii (Naudin) Kuntze[19]
-(Melastomataceae) Pleroma weddellii Triana[20]
-(Orchidaceae) Aceras × weddellii E.G.Camus[21]
-(Orchidaceae) Bulbophyllum weddellii (Lindl.) Rchb.f.[22]
-(Orchidaceae) Microstylis weddellii Finet[23]
-(Orchidaceae)  × Orchiaceras weddellii E.G.Camus[24]
-(Orchidaceae) Orchis × weddellii Franch.[25]
-(Ranunculaceae) Ranunculus weddellii Lourteig[26]
-(Rosaceae) Potentilla weddellii J.F.Macbr.[27]
-(Rubiaceae) Faramea weddellii Standl.[28]
-(Solanaceae) Salpichroa weddellii Benoist[29]
-(Solanaceae) Solanum weddellii Phil.[30]
-(Urticaceae) Laportea weddellii Leandri[31]
-(Urticaceae) Leucosyke weddellii Unruh[32]
-(Urticaceae) Pilea weddellii Fawc. &amp; Rendle[33]
-(Violaceae) Viola weddellii W.Becker[34]
+(Arecaceae) Calappa weddellii (Drude ex Mart.) Kuntze
+(Aristolochiaceae) Aristolochia weddellii Duch.
+(Asclepiadaceae) Asclepias weddellii E.Fourn.
+(Asteraceae) Baccharis weddellii Sch.Bip. ex Baker
+(Asteraceae) Doniophyton weddellii Katinas &amp; Stuessy
+(Asteraceae) Neocuatrecasia weddellii (B.L.Rob.) R.M.King &amp; H.Rob.
+(Asteraceae) Xenophyllum weddellii (Phil.) V.A.Funk
+(Berberidaceae) Berberis weddellii Lechl.
+(Boraginaceae) Cordia weddellii I.M.Johnst.
+(Brassicaceae) Exhalimolobos weddellii (E.Fourn.) Al-Shehbaz &amp; C.D.Bailey
+(Campanulaceae) Centropogon weddellii E.Wimm.
+(Caryophyllaceae) Stellaria weddellii Pedersen
+(Cucurbitaceae) Cayaponia weddellii Cogn.
+(Ebenaceae) Diospyros weddellii Hiern
+(Eriocaulaceae) Syngonanthus weddellii Moldenke
+(Geraniaceae) Geranium weddellii Briq.
+(Lauraceae) Nectandra weddellii Meisn.
+(Lycopodiaceae) Huperzia weddellii (Herter) Holub
+(Melastomataceae) Acinodendron weddellii (Naudin) Kuntze
+(Melastomataceae) Pleroma weddellii Triana
+(Orchidaceae) Aceras × weddellii E.G.Camus
+(Orchidaceae) Bulbophyllum weddellii (Lindl.) Rchb.f.
+(Orchidaceae) Microstylis weddellii Finet
+(Orchidaceae)  × Orchiaceras weddellii E.G.Camus
+(Orchidaceae) Orchis × weddellii Franch.
+(Ranunculaceae) Ranunculus weddellii Lourteig
+(Rosaceae) Potentilla weddellii J.F.Macbr.
+(Rubiaceae) Faramea weddellii Standl.
+(Solanaceae) Salpichroa weddellii Benoist
+(Solanaceae) Solanum weddellii Phil.
+(Urticaceae) Laportea weddellii Leandri
+(Urticaceae) Leucosyke weddellii Unruh
+(Urticaceae) Pilea weddellii Fawc. &amp; Rendle
+(Violaceae) Viola weddellii W.Becker
 </t>
         </is>
       </c>
@@ -650,7 +668,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Benoît Dayrat, Les botanistes et la flore de France, trois siècles de découvertes, Publications scientifiques du Muséum national d'histoire naturelle, 2003 et 2014, 690 p.  (ISBN 9782856535486)
 Philippe Jaussaud et Édouard R. Brygoo, Du Jardin au Muséum en 516 biographies, Muséum national d'histoire naturelle de Paris, 2004, 630 p.</t>
